--- a/benchmarking/data/DWB/path_smoothness.xlsx
+++ b/benchmarking/data/DWB/path_smoothness.xlsx
@@ -2,40 +2,63 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_maze" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="complex_maze" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="office" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="old_maze" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="playground" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="warehouse" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="old_maze" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="playground" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="warehouse" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="office" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Cambria"/>
+      <charset val="1"/>
+      <family val="0"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -58,18 +81,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -79,22 +94,48 @@
       <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -451,871 +492,881 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+    <row r="1" ht="13.8" customHeight="1" s="3">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>smoothness</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>datatype</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" ht="13.8" customHeight="1" s="3">
+      <c r="A2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>123.6551792297239</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="B2" s="5" t="n">
+        <v>123.655179229724</v>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="13.8" customHeight="1" s="3">
+      <c r="A3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>80.28829952612227</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="B3" s="5" t="n">
+        <v>80.2882995261223</v>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="13.8" customHeight="1" s="3">
+      <c r="A4" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>85.05908434435835</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="B4" s="5" t="n">
+        <v>85.0590843443583</v>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="13.8" customHeight="1" s="3">
+      <c r="A5" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>112.9945028534443</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="B5" s="5" t="n">
+        <v>112.994502853444</v>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="13.8" customHeight="1" s="3">
+      <c r="A6" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>107.3473734030232</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="B6" s="5" t="n">
+        <v>107.347373403023</v>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="13.8" customHeight="1" s="3">
+      <c r="A7" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>272.1341616206323</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="B7" s="5" t="n">
+        <v>272.134161620632</v>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="13.8" customHeight="1" s="3">
+      <c r="A8" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>127.0610777765772</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="B8" s="5" t="n">
+        <v>127.061077776577</v>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="13.8" customHeight="1" s="3">
+      <c r="A9" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>100.6214184320258</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="B9" s="5" t="n">
+        <v>100.621418432026</v>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="13.8" customHeight="1" s="3">
+      <c r="A10" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>74.44161718755484</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="B10" s="5" t="n">
+        <v>74.4416171875548</v>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="13.8" customHeight="1" s="3">
+      <c r="A11" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>75.74227094165337</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="B11" s="5" t="n">
+        <v>75.7422709416534</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="13.8" customHeight="1" s="3">
+      <c r="A12" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>115.9344985315116</v>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="B12" s="5" t="n">
+        <v>115.934498531512</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>average</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="3">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>smoothness</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>datatype</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="2" ht="15" customHeight="1" s="3">
+      <c r="A2" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>99.14895958666517</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="B2" s="5" t="n">
+        <v>99.1489595866652</v>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="3">
+      <c r="A3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>220.0607023994266</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="B3" s="5" t="n">
+        <v>220.060702399427</v>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="3">
+      <c r="A4" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>167.3177699321176</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="B4" s="5" t="n">
+        <v>167.317769932118</v>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="3">
+      <c r="A5" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>110.2157173475703</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="B5" s="5" t="n">
+        <v>110.21571734757</v>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="3">
+      <c r="A6" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>161.8622338735223</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="B6" s="5" t="n">
+        <v>161.862233873522</v>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="3">
+      <c r="A7" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="5" t="n">
         <v>199.814325097169</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="3">
+      <c r="A8" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="5" t="n">
         <v>148.318352265691</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="3">
+      <c r="A9" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>139.1367887816743</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="B9" s="5" t="n">
+        <v>139.136788781674</v>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="3">
+      <c r="A10" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>193.2947794137656</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="B10" s="5" t="n">
+        <v>193.294779413766</v>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="3">
+      <c r="A11" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="5" t="n">
         <v>118.61211565707</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="3">
+      <c r="A12" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>155.7781744354672</v>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="B12" s="5" t="n">
+        <v>155.778174435467</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>average</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="3">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>smoothness</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>datatype</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="2" ht="15" customHeight="1" s="3">
+      <c r="A2" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>29.5049059383281</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="B2" s="5" t="n">
+        <v>496.971746583308</v>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="3">
+      <c r="A3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>31.19814115883213</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="B3" s="5" t="n">
+        <v>474.904092993945</v>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="3">
+      <c r="A4" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>36.36850263004688</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="B4" s="5" t="n">
+        <v>106.301063820167</v>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="3">
+      <c r="A5" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>32.15884207617623</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="B5" s="5" t="n">
+        <v>156.859291492511</v>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="3">
+      <c r="A6" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>13.89247663653125</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="B6" s="5" t="n">
+        <v>83.8324962945005</v>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="3">
+      <c r="A7" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>24.91084517192487</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="B7" s="5" t="n">
+        <v>81.40737313453459</v>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="3">
+      <c r="A8" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>37.24355370915578</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="B8" s="5" t="n">
+        <v>147.232919206041</v>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="3">
+      <c r="A9" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>24.49144405003634</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="B9" s="5" t="n">
+        <v>107.894114439673</v>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="3">
+      <c r="A10" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>24.05310972911162</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="B10" s="5" t="n">
+        <v>149.658461525149</v>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="3">
+      <c r="A11" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>35.94115824190196</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="B11" s="5" t="n">
+        <v>115.375211220261</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="3">
+      <c r="A12" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>28.97629793420451</v>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="B12" s="5" t="n">
+        <v>192.043677071009</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>average</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="3">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>smoothness</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>datatype</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="2" ht="15" customHeight="1" s="3">
+      <c r="A2" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>496.9717465833083</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="B2" s="5" t="n">
+        <v>12.3073687165517</v>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="3">
+      <c r="A3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>474.904092993945</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="B3" s="5" t="n">
+        <v>10.5550510594057</v>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="3">
+      <c r="A4" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>106.301063820167</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="B4" s="5" t="n">
+        <v>16.0436692632254</v>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="3">
+      <c r="A5" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>156.8592914925106</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="B5" s="5" t="n">
+        <v>17.9012477903376</v>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="3">
+      <c r="A6" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>83.83249629450046</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="B6" s="5" t="n">
+        <v>7.1589552415809</v>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="3">
+      <c r="A7" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>81.40737313453462</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="B7" s="5" t="n">
+        <v>8.32996605307104</v>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="3">
+      <c r="A8" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>147.2329192060406</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="B8" s="5" t="n">
+        <v>8.654391727574909</v>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="3">
+      <c r="A9" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>107.8941144396727</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="B9" s="5" t="n">
+        <v>6.47364516151674</v>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="3">
+      <c r="A10" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>149.6584615251494</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="B10" s="5" t="n">
+        <v>16.0880765496782</v>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="3">
+      <c r="A11" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>115.3752112202611</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="B11" s="5" t="n">
+        <v>14.6859777621323</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="3">
+      <c r="A12" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>192.043677071009</v>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="B12" s="5" t="n">
+        <v>11.8198349325075</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>average</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="3">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>smoothness</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>datatype</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="2" ht="15" customHeight="1" s="3">
+      <c r="A2" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>12.30736871655174</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="B2" s="5" t="n">
+        <v>13.4482053306002</v>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="3">
+      <c r="A3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>10.5550510594057</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="B3" s="5" t="n">
+        <v>7.02710942368021</v>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="3">
+      <c r="A4" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>16.04366926322536</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="B4" s="5" t="n">
+        <v>13.8461371001969</v>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="3">
+      <c r="A5" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>17.90124779033764</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="B5" s="5" t="n">
+        <v>7.10068526831475</v>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="3">
+      <c r="A6" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>7.158955241580897</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="B6" s="5" t="n">
+        <v>6.99515579433916</v>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="3">
+      <c r="A7" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>8.329966053071043</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="B7" s="5" t="n">
+        <v>7.0727683139762</v>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="3">
+      <c r="A8" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>8.654391727574911</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="B8" s="5" t="n">
+        <v>7.09373249362258</v>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="3">
+      <c r="A9" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>6.473645161516737</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="B9" s="5" t="n">
+        <v>12.2655234265653</v>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="3">
+      <c r="A10" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>16.08807654967817</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="B10" s="5" t="n">
+        <v>12.7959004660889</v>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="3">
+      <c r="A11" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>14.68597776213229</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="B11" s="5" t="n">
+        <v>7.08573097215612</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="3">
+      <c r="A12" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>11.81983493250745</v>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="B12" s="5" t="n">
+        <v>9.47309485895402</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>average</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
@@ -1334,23 +1385,23 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>smoothness</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>datatype</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="7" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13.44820533060019</v>
+        <v>16.85070128186378</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1359,11 +1410,11 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="7" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.027109423680209</v>
+        <v>14.91330373600662</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1372,11 +1423,11 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="7" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13.84613710019688</v>
+        <v>20.37813997851282</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1385,11 +1436,11 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="7" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.100685268314752</v>
+        <v>22.05837163841746</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1398,11 +1449,11 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="7" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.995155794339157</v>
+        <v>17.39176809699046</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1411,11 +1462,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="7" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.072768313976203</v>
+        <v>28.13256696944276</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1424,11 +1475,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="7" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7.09373249362258</v>
+        <v>19.69380840263365</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1437,11 +1488,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="7" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12.26552342656528</v>
+        <v>20.67871527337304</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1450,11 +1501,11 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="7" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12.79590046608887</v>
+        <v>17.20654938410445</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1463,11 +1514,11 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="7" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7.085730972156116</v>
+        <v>10.7755916167806</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1476,11 +1527,11 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="7" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9.473094858954024</v>
+        <v>18.80795163781256</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
